--- a/target/test-classes/testdata.xlsx
+++ b/target/test-classes/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="RunManager" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -23,57 +23,12 @@
     <t>Execute</t>
   </si>
   <si>
-    <t>checkWhetherGlobalViewIsSelectedByDefault</t>
-  </si>
-  <si>
-    <t>Validate whether the default view selected is Global View</t>
-  </si>
-  <si>
     <t>Test Case Description</t>
   </si>
   <si>
-    <t>validateEnteringShipmentID</t>
-  </si>
-  <si>
-    <t>Validate whether the user can able to enter shipmentID</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>InvocationCount</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>Test case 1</t>
-  </si>
-  <si>
-    <t>Test Case 2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>Test Case 3</t>
-  </si>
-  <si>
     <t>browser</t>
   </si>
   <si>
@@ -128,7 +83,13 @@
     <t>validateErrorMessageOnLoginSignInPage</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Validate the search in Home Page</t>
+  </si>
+  <si>
+    <t>Validate the error message for incorrect login</t>
+  </si>
+  <si>
+    <t>Validate the error message for incorrect login from SigninPageTests</t>
   </si>
 </sst>
 </file>
@@ -484,119 +445,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.90625" customWidth="1"/>
     <col min="2" max="2" width="50.36328125" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -608,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,46 +524,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -669,82 +571,78 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/testdata.xlsx
+++ b/target/test-classes/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Validate the error message for incorrect login from SigninPageTests</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/testdata.xlsx
+++ b/target/test-classes/testdata.xlsx
@@ -490,7 +490,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
